--- a/Utenze_main.xlsx
+++ b/Utenze_main.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://camozzicloud-my.sharepoint.com/personal/mpasseri_fonderiemoragavardo_it/Documents/Documenti/VSCode/EnergyMeters/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="339" documentId="11_CD3F85A73935972BAC2112A087E31DD0A106565D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{970CC885-4EEB-4972-A860-8EFA795FE888}"/>
+  <xr:revisionPtr revIDLastSave="571" documentId="11_CD3F85A73935972BAC2112A087E31DD0A106565D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6EFA610D-1680-46B5-BC7F-DDEFBFFFAD15}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" tabRatio="140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="69">
   <si>
     <t>Cabinet</t>
   </si>
@@ -50,149 +50,203 @@
     <t>CAB1 GEN2</t>
   </si>
   <si>
+    <t>CAB2 GEN1</t>
+  </si>
+  <si>
+    <t>Filtro E34</t>
+  </si>
+  <si>
+    <t>CAB2 GEN2</t>
+  </si>
+  <si>
+    <t>Filtro E10 Blastman</t>
+  </si>
+  <si>
+    <t>Filtro E27 Omega GG</t>
+  </si>
+  <si>
+    <t>FM Impianto H1 e H3 e ventilatore forni</t>
+  </si>
+  <si>
+    <t>Molazze</t>
+  </si>
+  <si>
+    <t>Smottatore H1</t>
+  </si>
+  <si>
+    <t>Filtro E13 forni</t>
+  </si>
+  <si>
+    <t>Filtro E3 H1</t>
+  </si>
+  <si>
+    <t>FM uffici</t>
+  </si>
+  <si>
+    <t>FM anime</t>
+  </si>
+  <si>
+    <t>Impianto terre</t>
+  </si>
+  <si>
+    <t>Sabbiatrice Lamef</t>
+  </si>
+  <si>
+    <t>Linea capannone collaudo</t>
+  </si>
+  <si>
+    <t>Tettoia manutenzione elettrica</t>
+  </si>
+  <si>
+    <t>Quadro forni elettrici</t>
+  </si>
+  <si>
+    <t>Pompe raffreddamento forni</t>
+  </si>
+  <si>
+    <t>H3</t>
+  </si>
+  <si>
+    <t>Modelleria, mensa, spogliatoio, magazzino</t>
+  </si>
+  <si>
+    <t>Blindo sbarra servizi lato sx capannone grandi getti</t>
+  </si>
+  <si>
+    <t>Filtro E33 terre</t>
+  </si>
+  <si>
+    <t>Impianto rigenero GK/OMEGA</t>
+  </si>
+  <si>
+    <t>Illuminazione capannone IMF / GG / esterno cap. GG</t>
+  </si>
+  <si>
+    <t>Utenze varie formatura mano</t>
+  </si>
+  <si>
+    <t>Animisteria IMF</t>
+  </si>
+  <si>
+    <t>Quadro di servizio / illuminazione capannoni formatura a mano, anime, colata, sabbiatura</t>
+  </si>
+  <si>
+    <t>Convertitore reparto svbavatura</t>
+  </si>
+  <si>
+    <t>Forno CAP Cime</t>
+  </si>
+  <si>
+    <t>Filtro E30 sbavatura</t>
+  </si>
+  <si>
+    <t>Filtro E35 Gostol/Lamef</t>
+  </si>
+  <si>
+    <t>Compressore Compair L200 (Blastman)</t>
+  </si>
+  <si>
+    <t>Compressore RSE 290ne (rete)</t>
+  </si>
+  <si>
+    <t>Compressore Rn160e Nirvana (rete)</t>
+  </si>
+  <si>
+    <t>Centralina oleodinamica "vecchia" H1</t>
+  </si>
+  <si>
+    <t>Centrale oleodinamica formatrice H1 Hydroven</t>
+  </si>
+  <si>
+    <t>Quadro luci cabina 1</t>
+  </si>
+  <si>
+    <t>Tag1</t>
+  </si>
+  <si>
+    <t>Tag2</t>
+  </si>
+  <si>
+    <t>Tag3</t>
+  </si>
+  <si>
+    <t>Cab1</t>
+  </si>
+  <si>
+    <t>Cab1_Gen1</t>
+  </si>
+  <si>
     <t>Generali</t>
   </si>
   <si>
-    <t>CAB2 GEN1</t>
+    <t>Comuni</t>
+  </si>
+  <si>
+    <t>Oleodinamica</t>
+  </si>
+  <si>
+    <t>Varie</t>
   </si>
   <si>
     <t>Filtri</t>
   </si>
   <si>
-    <t>Filtro E34</t>
-  </si>
-  <si>
-    <t>CAB2 GEN2</t>
-  </si>
-  <si>
-    <t>CAB3 GEN</t>
+    <t>Tag4</t>
+  </si>
+  <si>
+    <t>H1</t>
+  </si>
+  <si>
+    <t>Cab2</t>
+  </si>
+  <si>
+    <t>Sabbiatrici</t>
   </si>
   <si>
     <t>Compressori</t>
   </si>
   <si>
-    <t>Filtro E10 Blastman</t>
-  </si>
-  <si>
-    <t>Filtro E27 Omega GG</t>
-  </si>
-  <si>
-    <t>FM Impianto H1 e H3 e ventilatore forni</t>
-  </si>
-  <si>
-    <t>Molazze</t>
-  </si>
-  <si>
-    <t>Smottatore H1</t>
-  </si>
-  <si>
-    <t>Filtro E13 forni</t>
-  </si>
-  <si>
-    <t>Filtro E3 H1</t>
-  </si>
-  <si>
-    <t>FM uffici</t>
-  </si>
-  <si>
-    <t>FM anime</t>
-  </si>
-  <si>
-    <t>Impianto terre</t>
-  </si>
-  <si>
-    <t>Sabbiatrice Lamef</t>
-  </si>
-  <si>
-    <t>Linea capannone collaudo</t>
-  </si>
-  <si>
-    <t>Sconosciuta</t>
-  </si>
-  <si>
-    <t>Varie</t>
-  </si>
-  <si>
-    <t>Tettoia manutenzione elettrica</t>
-  </si>
-  <si>
-    <t>Quadro forni elettrici</t>
-  </si>
-  <si>
-    <t>Pompe raffreddamento forni</t>
-  </si>
-  <si>
-    <t>H3</t>
-  </si>
-  <si>
-    <t>Modelleria, mensa, spogliatoio, magazzino</t>
-  </si>
-  <si>
-    <t>Blindo sbarra servizi lato sx capannone grandi getti</t>
-  </si>
-  <si>
-    <t>Filtro E33 terre</t>
-  </si>
-  <si>
-    <t>Impianto rigenero GK/OMEGA</t>
-  </si>
-  <si>
-    <t>Illuminazione capannone IMF / GG / esterno cap. GG</t>
-  </si>
-  <si>
-    <t>Utenze varie formatura mano</t>
-  </si>
-  <si>
-    <t>Animisteria IMF</t>
-  </si>
-  <si>
-    <t>Quadro di servizio / illuminazione capannoni formatura a mano, anime, colata, sabbiatura</t>
-  </si>
-  <si>
-    <t>Convertitore reparto svbavatura</t>
-  </si>
-  <si>
-    <t>Servizi/luci</t>
-  </si>
-  <si>
-    <t>Forno CAP Cime</t>
-  </si>
-  <si>
-    <t>Filtro E30 sbavatura</t>
-  </si>
-  <si>
-    <t>Filtro E35 Gostol/Lamef</t>
-  </si>
-  <si>
-    <t>Compressore Compair L200 (Blastman)</t>
-  </si>
-  <si>
-    <t>Compressore RSE 290ne (rete)</t>
-  </si>
-  <si>
-    <t>Compressore Rn160e Nirvana (rete)</t>
-  </si>
-  <si>
-    <t>Centralina oleodinamica "vecchia" H1</t>
-  </si>
-  <si>
-    <t>Centrale oleodinamica formatrice H1 Hydroven</t>
-  </si>
-  <si>
-    <t>Quadro luci cabina 1</t>
-  </si>
-  <si>
-    <t>Group1</t>
-  </si>
-  <si>
-    <t>Group2</t>
+    <t>Cab2_Gen2</t>
+  </si>
+  <si>
+    <t>Luci</t>
+  </si>
+  <si>
+    <t>Forni</t>
+  </si>
+  <si>
+    <t>Terre</t>
+  </si>
+  <si>
+    <t>Sbavatura</t>
+  </si>
+  <si>
+    <t>Grandi getti</t>
+  </si>
+  <si>
+    <t>IMF</t>
+  </si>
+  <si>
+    <t>H1/IMF</t>
+  </si>
+  <si>
+    <t>Cab3</t>
+  </si>
+  <si>
+    <t>Cab3_Gen1</t>
+  </si>
+  <si>
+    <t>CAB3 GEN1</t>
+  </si>
+  <si>
+    <t>Cab1_Gen2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -210,6 +264,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -235,9 +297,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -583,36 +648,44 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G65"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="40.58203125" customWidth="1"/>
-    <col min="2" max="2" width="7.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.08203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.5" customWidth="1"/>
+    <col min="2" max="2" width="7.58203125" customWidth="1"/>
+    <col min="3" max="3" width="7.08203125" customWidth="1"/>
+    <col min="4" max="4" width="5.83203125" customWidth="1"/>
+    <col min="5" max="5" width="11.58203125" customWidth="1"/>
+    <col min="6" max="7" width="11.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -623,13 +696,16 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="E2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+        <v>46</v>
+      </c>
+      <c r="F2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B3">
         <v>1</v>
       </c>
@@ -637,15 +713,18 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="E3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+        <v>46</v>
+      </c>
+      <c r="F3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -654,15 +733,18 @@
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="E4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+        <v>46</v>
+      </c>
+      <c r="F4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -671,15 +753,21 @@
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="E5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+        <v>46</v>
+      </c>
+      <c r="F5" t="s">
+        <v>48</v>
+      </c>
+      <c r="G5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -688,15 +776,21 @@
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="E6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+        <v>46</v>
+      </c>
+      <c r="F6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -705,15 +799,21 @@
         <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="E7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+        <v>46</v>
+      </c>
+      <c r="F7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -722,15 +822,21 @@
         <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="E8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+        <v>46</v>
+      </c>
+      <c r="F8" t="s">
+        <v>53</v>
+      </c>
+      <c r="G8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -739,13 +845,19 @@
         <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="E9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+        <v>46</v>
+      </c>
+      <c r="F9" t="s">
+        <v>53</v>
+      </c>
+      <c r="G9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B10">
         <v>1</v>
       </c>
@@ -753,13 +865,13 @@
         <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="E10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B11">
         <v>1</v>
       </c>
@@ -767,15 +879,15 @@
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="E11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -784,15 +896,21 @@
         <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="E12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+        <v>46</v>
+      </c>
+      <c r="F12" t="s">
+        <v>59</v>
+      </c>
+      <c r="G12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -801,13 +919,19 @@
         <v>12</v>
       </c>
       <c r="D13" t="s">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="E13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+        <v>46</v>
+      </c>
+      <c r="F13" t="s">
+        <v>53</v>
+      </c>
+      <c r="G13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -818,15 +942,18 @@
         <v>13</v>
       </c>
       <c r="D14" t="s">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="E14" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+        <v>68</v>
+      </c>
+      <c r="F14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -835,13 +962,19 @@
         <v>14</v>
       </c>
       <c r="D15" t="s">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="E15" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+        <v>68</v>
+      </c>
+      <c r="F15" t="s">
+        <v>48</v>
+      </c>
+      <c r="G15" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="1"/>
       <c r="B16">
         <v>1</v>
@@ -850,16 +983,15 @@
         <v>15</v>
       </c>
       <c r="D16" t="s">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="E16" t="s">
-        <v>24</v>
-      </c>
-      <c r="F16" s="1"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -868,15 +1000,18 @@
         <v>16</v>
       </c>
       <c r="D17" t="s">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="E17" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+        <v>68</v>
+      </c>
+      <c r="F17" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -885,13 +1020,19 @@
         <v>17</v>
       </c>
       <c r="D18" t="s">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="E18" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+        <v>68</v>
+      </c>
+      <c r="F18" t="s">
+        <v>48</v>
+      </c>
+      <c r="G18" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B19">
         <v>1</v>
       </c>
@@ -899,15 +1040,15 @@
         <v>18</v>
       </c>
       <c r="D19" t="s">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="E19" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -916,15 +1057,18 @@
         <v>19</v>
       </c>
       <c r="D20" t="s">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="E20" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+        <v>68</v>
+      </c>
+      <c r="F20" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -933,13 +1077,13 @@
         <v>20</v>
       </c>
       <c r="D21" t="s">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="E21" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B22">
         <v>1</v>
       </c>
@@ -947,15 +1091,15 @@
         <v>21</v>
       </c>
       <c r="D22" t="s">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="E22" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -964,15 +1108,15 @@
         <v>22</v>
       </c>
       <c r="D23" t="s">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="E23" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -981,13 +1125,19 @@
         <v>23</v>
       </c>
       <c r="D24" t="s">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="E24" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+        <v>68</v>
+      </c>
+      <c r="F24" t="s">
+        <v>53</v>
+      </c>
+      <c r="G24" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B25">
         <v>1</v>
       </c>
@@ -995,15 +1145,15 @@
         <v>24</v>
       </c>
       <c r="D25" t="s">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="E25" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -1012,15 +1162,15 @@
         <v>25</v>
       </c>
       <c r="D26" t="s">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="E26" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
         <v>24</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
-        <v>30</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -1029,16 +1179,15 @@
         <v>26</v>
       </c>
       <c r="D27" t="s">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="E27" t="s">
-        <v>25</v>
-      </c>
-      <c r="F27" s="1"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -1047,15 +1196,21 @@
         <v>27</v>
       </c>
       <c r="D28" t="s">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+        <v>68</v>
+      </c>
+      <c r="F28" t="s">
+        <v>48</v>
+      </c>
+      <c r="G28" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B29">
         <v>2</v>
@@ -1064,15 +1219,18 @@
         <v>1</v>
       </c>
       <c r="D29" t="s">
-        <v>6</v>
+        <v>54</v>
       </c>
       <c r="E29" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+        <v>57</v>
+      </c>
+      <c r="F29" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B30">
         <v>2</v>
@@ -1081,15 +1239,18 @@
         <v>2</v>
       </c>
       <c r="D30" t="s">
-        <v>6</v>
+        <v>54</v>
       </c>
       <c r="E30" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+        <v>57</v>
+      </c>
+      <c r="F30" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B31">
         <v>2</v>
@@ -1098,15 +1259,18 @@
         <v>3</v>
       </c>
       <c r="D31" t="s">
-        <v>6</v>
+        <v>54</v>
       </c>
       <c r="E31" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+        <v>57</v>
+      </c>
+      <c r="F31" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B32">
         <v>2</v>
@@ -1115,15 +1279,18 @@
         <v>4</v>
       </c>
       <c r="D32" t="s">
-        <v>6</v>
+        <v>54</v>
       </c>
       <c r="E32" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+        <v>57</v>
+      </c>
+      <c r="F32" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="B33">
         <v>2</v>
@@ -1132,15 +1299,21 @@
         <v>5</v>
       </c>
       <c r="D33" t="s">
-        <v>6</v>
+        <v>54</v>
       </c>
       <c r="E33" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+        <v>57</v>
+      </c>
+      <c r="F33" t="s">
+        <v>55</v>
+      </c>
+      <c r="G33" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B34">
         <v>2</v>
@@ -1149,15 +1322,21 @@
         <v>6</v>
       </c>
       <c r="D34" t="s">
+        <v>54</v>
+      </c>
+      <c r="E34" t="s">
+        <v>57</v>
+      </c>
+      <c r="F34" t="s">
+        <v>48</v>
+      </c>
+      <c r="G34" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
         <v>6</v>
-      </c>
-      <c r="E34" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
-        <v>8</v>
       </c>
       <c r="B35">
         <v>2</v>
@@ -1166,13 +1345,19 @@
         <v>7</v>
       </c>
       <c r="D35" t="s">
-        <v>6</v>
+        <v>54</v>
       </c>
       <c r="E35" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+        <v>57</v>
+      </c>
+      <c r="F35" t="s">
+        <v>55</v>
+      </c>
+      <c r="G35" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B36">
         <v>2</v>
       </c>
@@ -1180,13 +1365,13 @@
         <v>8</v>
       </c>
       <c r="D36" t="s">
-        <v>6</v>
+        <v>54</v>
       </c>
       <c r="E36" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B37">
         <v>2</v>
       </c>
@@ -1194,13 +1379,13 @@
         <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>6</v>
+        <v>54</v>
       </c>
       <c r="E37" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B38">
         <v>2</v>
       </c>
@@ -1208,13 +1393,13 @@
         <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>6</v>
+        <v>54</v>
       </c>
       <c r="E38" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B39">
         <v>2</v>
       </c>
@@ -1222,13 +1407,13 @@
         <v>11</v>
       </c>
       <c r="D39" t="s">
-        <v>6</v>
+        <v>54</v>
       </c>
       <c r="E39" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B40">
         <v>2</v>
       </c>
@@ -1236,13 +1421,13 @@
         <v>12</v>
       </c>
       <c r="D40" t="s">
-        <v>6</v>
+        <v>54</v>
       </c>
       <c r="E40" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B41">
         <v>2</v>
       </c>
@@ -1250,15 +1435,15 @@
         <v>13</v>
       </c>
       <c r="D41" t="s">
-        <v>6</v>
+        <v>54</v>
       </c>
       <c r="E41" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B42">
         <v>2</v>
@@ -1267,13 +1452,16 @@
         <v>14</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>54</v>
       </c>
       <c r="E42" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+        <v>57</v>
+      </c>
+      <c r="F42" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43" s="1"/>
       <c r="B43">
         <v>2</v>
@@ -1282,15 +1470,15 @@
         <v>15</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>54</v>
       </c>
       <c r="E43" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B44">
         <v>2</v>
@@ -1299,15 +1487,18 @@
         <v>16</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>54</v>
       </c>
       <c r="E44" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+        <v>57</v>
+      </c>
+      <c r="F44" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B45">
         <v>2</v>
@@ -1316,13 +1507,19 @@
         <v>17</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>54</v>
       </c>
       <c r="E45" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+        <v>57</v>
+      </c>
+      <c r="F45" t="s">
+        <v>64</v>
+      </c>
+      <c r="G45" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B46">
         <v>2</v>
       </c>
@@ -1330,15 +1527,15 @@
         <v>18</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>54</v>
       </c>
       <c r="E46" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B47">
         <v>2</v>
@@ -1347,13 +1544,16 @@
         <v>19</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>54</v>
       </c>
       <c r="E47" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+        <v>57</v>
+      </c>
+      <c r="F47" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B48">
         <v>2</v>
       </c>
@@ -1361,10 +1561,10 @@
         <v>20</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>54</v>
       </c>
       <c r="E48" t="s">
-        <v>24</v>
+        <v>57</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.35">
@@ -1375,15 +1575,15 @@
         <v>21</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>54</v>
       </c>
       <c r="E49" t="s">
-        <v>24</v>
+        <v>57</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>10</v>
+        <v>67</v>
       </c>
       <c r="B50">
         <v>3</v>
@@ -1392,15 +1592,18 @@
         <v>1</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="E50" t="s">
-        <v>5</v>
+        <v>66</v>
+      </c>
+      <c r="F50" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="B51">
         <v>3</v>
@@ -1409,10 +1612,16 @@
         <v>2</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="E51" t="s">
-        <v>11</v>
+        <v>66</v>
+      </c>
+      <c r="F51" t="s">
+        <v>48</v>
+      </c>
+      <c r="G51" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.35">
@@ -1423,15 +1632,15 @@
         <v>3</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="E52" t="s">
-        <v>24</v>
+        <v>66</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B53">
         <v>3</v>
@@ -1440,15 +1649,21 @@
         <v>4</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="E53" t="s">
-        <v>11</v>
+        <v>66</v>
+      </c>
+      <c r="F53" t="s">
+        <v>55</v>
+      </c>
+      <c r="G53" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B54">
         <v>3</v>
@@ -1457,15 +1672,21 @@
         <v>5</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="E54" t="s">
-        <v>39</v>
+        <v>66</v>
+      </c>
+      <c r="F54" t="s">
+        <v>48</v>
+      </c>
+      <c r="G54" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B55">
         <v>3</v>
@@ -1474,10 +1695,16 @@
         <v>6</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="E55" t="s">
-        <v>7</v>
+        <v>66</v>
+      </c>
+      <c r="F55" t="s">
+        <v>55</v>
+      </c>
+      <c r="G55" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.35">
@@ -1488,10 +1715,10 @@
         <v>7</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="E56" t="s">
-        <v>24</v>
+        <v>66</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.35">
@@ -1502,10 +1729,10 @@
         <v>8</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="E57" t="s">
-        <v>24</v>
+        <v>66</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.35">
@@ -1516,10 +1743,10 @@
         <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="E58" t="s">
-        <v>24</v>
+        <v>66</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.35">
@@ -1530,10 +1757,10 @@
         <v>10</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="E59" t="s">
-        <v>24</v>
+        <v>66</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.35">
@@ -1544,12 +1771,11 @@
         <v>11</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="E60" t="s">
-        <v>24</v>
-      </c>
-      <c r="G60" s="1"/>
+        <v>66</v>
+      </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B61">
@@ -1559,15 +1785,15 @@
         <v>12</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="E61" t="s">
-        <v>24</v>
+        <v>66</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="B62">
         <v>3</v>
@@ -1576,15 +1802,21 @@
         <v>13</v>
       </c>
       <c r="D62" t="s">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="E62" t="s">
-        <v>7</v>
+        <v>66</v>
+      </c>
+      <c r="F62" t="s">
+        <v>61</v>
+      </c>
+      <c r="G62" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B63">
         <v>3</v>
@@ -1593,15 +1825,21 @@
         <v>14</v>
       </c>
       <c r="D63" t="s">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="E63" t="s">
-        <v>25</v>
+        <v>66</v>
+      </c>
+      <c r="F63" t="s">
+        <v>48</v>
+      </c>
+      <c r="G63" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B64">
         <v>3</v>
@@ -1610,15 +1848,21 @@
         <v>15</v>
       </c>
       <c r="D64" t="s">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="E64" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+        <v>66</v>
+      </c>
+      <c r="F64" t="s">
+        <v>62</v>
+      </c>
+      <c r="G64" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B65">
         <v>3</v>
@@ -1627,10 +1871,16 @@
         <v>16</v>
       </c>
       <c r="D65" t="s">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="E65" t="s">
-        <v>25</v>
+        <v>66</v>
+      </c>
+      <c r="F65" t="s">
+        <v>48</v>
+      </c>
+      <c r="G65" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
